--- a/study/Schedule.xlsx
+++ b/study/Schedule.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\runnynose\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\runny_nose\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="09월" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>화</t>
   </si>
@@ -63,7 +63,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원자 소멸 시뮬레이션</t>
+    <t>요리사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심규영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심규영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1순환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2순환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3순환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -71,139 +183,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요리사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김수빈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>심규영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4순환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>김효주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>김수빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>심규영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이주미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김수빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심규영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이주미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이주미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1순환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2순환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3순환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +428,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F25"/>
+  <dimension ref="B1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -660,374 +728,452 @@
     <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1">
-        <v>45174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
+      <c r="B2" s="3">
+        <v>45180</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
-        <v>45175</v>
+        <v>45174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
-        <v>45176</v>
+        <v>45175</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>45177</v>
+        <v>45176</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>45178</v>
+        <v>45177</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>45179</v>
+        <v>45178</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>45179</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
         <v>45180</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>45181</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>45182</v>
+        <v>45181</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>45185</v>
+        <v>45184</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>45186</v>
+        <v>45185</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
-        <v>45187</v>
+        <v>45186</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>45188</v>
+        <v>45187</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
-        <v>45189</v>
+        <v>45188</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
-        <v>45190</v>
+        <v>45189</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>45191</v>
+        <v>45190</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
-        <v>45192</v>
+        <v>45191</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
-        <v>45193</v>
+        <v>45192</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
-        <v>45194</v>
+        <v>45193</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>45195</v>
+        <v>45194</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E23" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
+        <v>45196</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
         <v>45197</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>45198</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E8:F8"/>
+  <mergeCells count="9">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="D23:D29"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/study/Schedule.xlsx
+++ b/study/Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>화</t>
   </si>
@@ -63,203 +63,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>김수빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심규영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심규영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1순환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2순환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3순환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무선 충전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심규영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4순환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심규영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>요리사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김수빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심규영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이주미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김수빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심규영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1순환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2순환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3순환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무선 충전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김수빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심규영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이주미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4순환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김수빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심규영</t>
+    <t>숫자 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,25 +419,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -729,20 +733,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
@@ -753,12 +757,12 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
@@ -769,10 +773,10 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -784,10 +788,10 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -814,10 +818,10 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -829,10 +833,10 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -858,12 +862,12 @@
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -874,10 +878,10 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -889,10 +893,10 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -907,7 +911,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
@@ -919,10 +923,10 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -934,10 +938,10 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -945,29 +949,29 @@
         <v>45186</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="E15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>45187</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -979,10 +983,10 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -994,10 +998,10 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -1009,10 +1013,10 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -1024,7 +1028,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>35</v>
@@ -1042,7 +1046,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -1050,29 +1054,29 @@
         <v>45193</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="10"/>
+      <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>45194</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -1084,10 +1088,10 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -1099,10 +1103,10 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -1110,14 +1114,14 @@
         <v>45197</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
@@ -1125,14 +1129,14 @@
         <v>45198</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -1140,14 +1144,14 @@
         <v>45199</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -1155,13 +1159,13 @@
         <v>45200</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="10"/>
+      <c r="E29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/study/Schedule.xlsx
+++ b/study/Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>화</t>
   </si>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>숫자 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +727,7 @@
   <dimension ref="B1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1136,7 +1140,7 @@
         <v>42</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">

--- a/study/Schedule.xlsx
+++ b/study/Schedule.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\runny_nose\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1390060B-9C8D-4798-B05D-D023CAD3EBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="09월" sheetId="1" r:id="rId1"/>
+    <sheet name="10월" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
   <si>
     <t>화</t>
   </si>
@@ -268,13 +270,83 @@
   </si>
   <si>
     <t>문제16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5순환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS와 BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미로 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단지번호붙이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결 요소의 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n과 m (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순열,
+조합,
+부분집합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백트래킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n과 m (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리의 부모 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -407,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,11 +516,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -723,20 +822,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
@@ -753,7 +852,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="3">
         <v>45180</v>
       </c>
@@ -768,7 +867,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <v>45174</v>
       </c>
@@ -783,7 +882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <v>45175</v>
       </c>
@@ -798,7 +897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <v>45176</v>
       </c>
@@ -813,7 +912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <v>45177</v>
       </c>
@@ -828,7 +927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <v>45178</v>
       </c>
@@ -843,7 +942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <v>45179</v>
       </c>
@@ -858,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <v>45180</v>
       </c>
@@ -873,7 +972,7 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <v>45181</v>
       </c>
@@ -888,7 +987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <v>45182</v>
       </c>
@@ -903,7 +1002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <v>45183</v>
       </c>
@@ -918,7 +1017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <v>45184</v>
       </c>
@@ -933,7 +1032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <v>45185</v>
       </c>
@@ -948,7 +1047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>45186</v>
       </c>
@@ -961,7 +1060,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <v>45187</v>
       </c>
@@ -978,7 +1077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <v>45188</v>
       </c>
@@ -993,7 +1092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <v>45189</v>
       </c>
@@ -1008,7 +1107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <v>45190</v>
       </c>
@@ -1023,7 +1122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <v>45191</v>
       </c>
@@ -1038,7 +1137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <v>45192</v>
       </c>
@@ -1053,7 +1152,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
         <v>45193</v>
       </c>
@@ -1066,7 +1165,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <v>45194</v>
       </c>
@@ -1083,7 +1182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <v>45195</v>
       </c>
@@ -1098,7 +1197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <v>45196</v>
       </c>
@@ -1113,7 +1212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <v>45197</v>
       </c>
@@ -1128,7 +1227,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <v>45198</v>
       </c>
@@ -1143,7 +1242,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <v>45199</v>
       </c>
@@ -1158,7 +1257,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="3">
         <v>45200</v>
       </c>
@@ -1187,4 +1286,569 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BD682D-8501-4A55-A28A-963105397590}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1">
+        <v>45201</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1">
+        <v>45202</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1">
+        <v>45203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1">
+        <v>45204</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1">
+        <v>45205</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="3">
+        <v>45206</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45207</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1">
+        <v>45208</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1">
+        <v>45209</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="12"/>
+      <c r="B12" s="1">
+        <v>45210</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="1">
+        <v>45211</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="12"/>
+      <c r="B14" s="1">
+        <v>45212</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="12"/>
+      <c r="B15" s="3">
+        <v>45213</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45214</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="12"/>
+      <c r="B17" s="1">
+        <v>45215</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="12"/>
+      <c r="B18" s="1">
+        <v>45216</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="12"/>
+      <c r="B19" s="1">
+        <v>45217</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="12"/>
+      <c r="B20" s="1">
+        <v>45218</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="12"/>
+      <c r="B21" s="1">
+        <v>45219</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="12"/>
+      <c r="B22" s="3">
+        <v>45220</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45221</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="12"/>
+      <c r="B24" s="1">
+        <v>45222</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="12"/>
+      <c r="B25" s="1">
+        <v>45223</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="12"/>
+      <c r="B26" s="1">
+        <v>45224</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="12"/>
+      <c r="B27" s="1">
+        <v>45225</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="12"/>
+      <c r="B28" s="1">
+        <v>45226</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="12"/>
+      <c r="B29" s="3">
+        <v>45227</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45228</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="8"/>
+      <c r="B31" s="1">
+        <v>45229</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="9"/>
+      <c r="B32" s="1">
+        <v>45230</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E8:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E25:F25">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:F32">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/study/Schedule.xlsx
+++ b/study/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\runny_nose\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1390060B-9C8D-4798-B05D-D023CAD3EBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7F8958-CF2A-4EA4-8A0C-B4B1291DB397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="09월" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="78">
   <si>
     <t>화</t>
   </si>
@@ -327,15 +327,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>트리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n과 m (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트리의 부모 찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1292,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BD682D-8501-4A55-A28A-963105397590}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1350,10 +1342,10 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1366,10 +1358,10 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1659,8 +1651,8 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="12" t="s">
-        <v>75</v>
+      <c r="A23" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="B23" s="3">
         <v>45221</v>
@@ -1689,7 +1681,7 @@
         <v>64</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1772,7 +1764,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="3">
         <v>45228</v>
@@ -1800,9 +1792,7 @@
       <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="9"/>
@@ -1822,25 +1812,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="D23:D29"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="D16:D22"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E25:F25">

--- a/study/Schedule.xlsx
+++ b/study/Schedule.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\runny_nose\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7F8958-CF2A-4EA4-8A0C-B4B1291DB397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9FF9FE-5206-4686-AA83-63512DF72588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="09월" sheetId="1" r:id="rId1"/>
     <sheet name="10월" sheetId="2" r:id="rId2"/>
+    <sheet name="11월" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="90">
   <si>
     <t>화</t>
   </si>
@@ -332,6 +333,55 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백트래킹 개인 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.acmicpc.net/workbook/view/3971
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 문제 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2716.원숭이 매달기 (https://www.acmicpc.net/problem/2716)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리 1 (3971) - 트리 순회(1991) 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다익스트라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분할정복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +403,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -466,12 +525,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,9 +576,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1284,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BD682D-8501-4A55-A28A-963105397590}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1812,12 +1893,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
     <mergeCell ref="D23:D29"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E16:F16"/>
@@ -1826,11 +1906,12 @@
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="D16:D22"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E25:F25">
@@ -1841,4 +1922,521 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1746CA-B384-4472-BC65-D8D0472B7218}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5" customWidth="1"/>
+    <col min="6" max="6" width="54.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45228</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="12"/>
+      <c r="B3" s="15">
+        <v>45229</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="15">
+        <v>45230</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15">
+        <v>45231</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15">
+        <v>45232</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="15">
+        <v>45233</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="15">
+        <v>45234</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45235</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15">
+        <v>45236</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="15">
+        <v>45237</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="12"/>
+      <c r="B12" s="15">
+        <v>45238</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="15">
+        <v>45239</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15">
+        <v>45240</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="12"/>
+      <c r="B15" s="15">
+        <v>45241</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45242</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="12"/>
+      <c r="B17" s="15">
+        <v>45243</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15">
+        <v>45244</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="12"/>
+      <c r="B19" s="15">
+        <v>45245</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="12"/>
+      <c r="B20" s="15">
+        <v>45246</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="12"/>
+      <c r="B21" s="15">
+        <v>45247</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15">
+        <v>45248</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45249</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="12"/>
+      <c r="B24" s="15">
+        <v>45250</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="12"/>
+      <c r="B25" s="15">
+        <v>45251</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="12"/>
+      <c r="B26" s="15">
+        <v>45252</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="12"/>
+      <c r="B27" s="15">
+        <v>45253</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="12"/>
+      <c r="B28" s="15">
+        <v>45254</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="12"/>
+      <c r="B29" s="15">
+        <v>45255</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45256</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="12"/>
+      <c r="B31" s="15">
+        <v>45257</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="12"/>
+      <c r="B32" s="15">
+        <v>45258</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="12"/>
+      <c r="B33" s="15">
+        <v>45259</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="12"/>
+      <c r="B34" s="15">
+        <v>45260</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="12"/>
+      <c r="B35" s="15">
+        <v>45261</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="12"/>
+      <c r="B36" s="15">
+        <v>45262</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="D9:D15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{37ECF1A3-6825-43BC-AB96-E29A44A66C32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/study/Schedule.xlsx
+++ b/study/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\runny_nose\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9FF9FE-5206-4686-AA83-63512DF72588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DCC453-412A-4D65-B2AC-EE6C847BC249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="96">
   <si>
     <t>화</t>
   </si>
@@ -365,10 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>트리 1 (3971) - 트리 순회(1991) 제외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>·</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,6 +378,37 @@
   </si>
   <si>
     <t>그리디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/workbook/view/3977</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>710 - 그리디 알고리즘 (3977)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>620 - 트리 1 (3971) - 트리 순회(1991) 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800 - 분할 정복 (3980)
+801 - 분할 정복 (연습) (3981)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.acmicpc.net/workbook/view/3980 
+https://www.acmicpc.net/workbook/view/3981
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다익스트라 개인 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,6 +579,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,11 +609,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -589,9 +619,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,13 +959,13 @@
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
@@ -947,7 +974,7 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
@@ -962,7 +989,7 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
@@ -977,7 +1004,7 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
@@ -992,7 +1019,7 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1007,7 +1034,7 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1022,7 +1049,7 @@
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1037,13 +1064,13 @@
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
@@ -1052,7 +1079,7 @@
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1067,7 +1094,7 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1082,7 +1109,7 @@
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1097,7 +1124,7 @@
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1112,7 +1139,7 @@
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1127,11 +1154,11 @@
       <c r="C15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
@@ -1140,7 +1167,7 @@
       <c r="C16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1157,7 +1184,7 @@
       <c r="C17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1172,7 +1199,7 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1187,7 +1214,7 @@
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1202,7 +1229,7 @@
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1217,7 +1244,7 @@
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1232,11 +1259,11 @@
       <c r="C22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
@@ -1245,7 +1272,7 @@
       <c r="C23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1262,7 +1289,7 @@
       <c r="C24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="2" t="s">
         <v>57</v>
       </c>
@@ -1277,7 +1304,7 @@
       <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1292,7 +1319,7 @@
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="2" t="s">
         <v>59</v>
       </c>
@@ -1307,7 +1334,7 @@
       <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="2" t="s">
         <v>42</v>
       </c>
@@ -1322,7 +1349,7 @@
       <c r="C28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
@@ -1337,11 +1364,11 @@
       <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="11"/>
+      <c r="E29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1396,7 +1423,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="3">
@@ -1405,23 +1432,23 @@
       <c r="C2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1">
         <v>45201</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="2" t="s">
         <v>77</v>
       </c>
@@ -1430,14 +1457,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1">
         <v>45202</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="2" t="s">
         <v>77</v>
       </c>
@@ -1446,14 +1473,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1">
         <v>45203</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="2" t="s">
         <v>64</v>
       </c>
@@ -1462,14 +1489,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1">
         <v>45204</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1478,14 +1505,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1">
         <v>45205</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="2" t="s">
         <v>64</v>
       </c>
@@ -1494,21 +1521,21 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3">
         <v>45206</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="3">
@@ -1517,23 +1544,23 @@
       <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="1">
         <v>45208</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="2" t="s">
         <v>64</v>
       </c>
@@ -1542,14 +1569,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1">
         <v>45209</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1558,14 +1585,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1">
         <v>45210</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1574,14 +1601,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1">
         <v>45211</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="2" t="s">
         <v>69</v>
       </c>
@@ -1590,14 +1617,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1">
         <v>45212</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1606,21 +1633,21 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3">
         <v>45213</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="3">
@@ -1629,23 +1656,23 @@
       <c r="C16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="1">
         <v>45215</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="2" t="s">
         <v>64</v>
       </c>
@@ -1654,14 +1681,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="1">
         <v>45216</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1670,14 +1697,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="1">
         <v>45217</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1686,14 +1713,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="1">
         <v>45218</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1702,14 +1729,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="1">
         <v>45219</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="2" t="s">
         <v>69</v>
       </c>
@@ -1718,21 +1745,21 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="3">
         <v>45220</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="3">
@@ -1741,23 +1768,23 @@
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="1">
         <v>45222</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="2" t="s">
         <v>64</v>
       </c>
@@ -1766,14 +1793,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="12"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="1">
         <v>45223</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1782,14 +1809,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="1">
         <v>45224</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1798,14 +1825,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="12"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="1">
         <v>45225</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
@@ -1814,14 +1841,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="1">
         <v>45226</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
@@ -1830,21 +1857,21 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="12"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="3">
         <v>45227</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="3">
@@ -1853,37 +1880,37 @@
       <c r="C30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="8"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="1">
         <v>45229</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="9"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1">
         <v>45230</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1893,11 +1920,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="D23:D29"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E16:F16"/>
@@ -1906,12 +1934,11 @@
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="D16:D22"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E25:F25">
@@ -1926,21 +1953,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1746CA-B384-4472-BC65-D8D0472B7218}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5" customWidth="1"/>
-    <col min="6" max="6" width="54.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.5" customWidth="1"/>
+    <col min="7" max="7" width="54.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
@@ -1951,17 +1978,20 @@
         <v>46</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="3">
@@ -1970,90 +2000,99 @@
       <c r="C2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="12"/>
-      <c r="B3" s="15">
+      <c r="G2" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1">
         <v>45229</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1">
         <v>45230</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1">
         <v>45231</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15">
+      <c r="D5" s="2"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1">
         <v>45232</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15">
+      <c r="D6" s="2"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="14"/>
+      <c r="B7" s="1">
         <v>45233</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15">
+      <c r="D7" s="2"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="14"/>
+      <c r="B8" s="1">
         <v>45234</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B9" s="3">
@@ -2062,93 +2101,102 @@
       <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="14"/>
+      <c r="B10" s="1">
         <v>45236</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
-      <c r="B11" s="15">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="14"/>
+      <c r="B11" s="1">
         <v>45237</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15">
+      <c r="D11" s="2"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="14"/>
+      <c r="B12" s="1">
         <v>45238</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
-      <c r="B13" s="15">
+      <c r="D12" s="2"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="14"/>
+      <c r="B13" s="1">
         <v>45239</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15">
+      <c r="D13" s="2"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="14"/>
+      <c r="B14" s="1">
         <v>45240</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15">
+      <c r="D14" s="2"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="14"/>
+      <c r="B15" s="1">
         <v>45241</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
-        <v>87</v>
+      <c r="D15" s="2"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="B16" s="3">
         <v>45242</v>
@@ -2156,87 +2204,98 @@
       <c r="C16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15">
+      <c r="F16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="14"/>
+      <c r="B17" s="1">
         <v>45243</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15">
+      <c r="D17" s="2"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="14"/>
+      <c r="B18" s="1">
         <v>45244</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="12"/>
-      <c r="B19" s="15">
+      <c r="D18" s="2"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="14"/>
+      <c r="B19" s="1">
         <v>45245</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="12"/>
-      <c r="B20" s="15">
+      <c r="D19" s="2"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="14"/>
+      <c r="B20" s="1">
         <v>45246</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="12"/>
-      <c r="B21" s="15">
+      <c r="D20" s="2"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="14"/>
+      <c r="B21" s="1">
         <v>45247</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15">
+      <c r="D21" s="2"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="14"/>
+      <c r="B22" s="1">
         <v>45248</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="13" t="s">
-        <v>88</v>
+      <c r="D22" s="2"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+      <c r="A23" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="B23" s="3">
         <v>45249</v>
@@ -2244,87 +2303,100 @@
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="12"/>
-      <c r="B24" s="15">
+      <c r="F23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="14"/>
+      <c r="B24" s="1">
         <v>45250</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="12"/>
-      <c r="B25" s="15">
+      <c r="D24" s="2"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="14"/>
+      <c r="B25" s="1">
         <v>45251</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="12"/>
-      <c r="B26" s="15">
+      <c r="D25" s="2"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="14"/>
+      <c r="B26" s="1">
         <v>45252</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="12"/>
-      <c r="B27" s="15">
+      <c r="D26" s="2"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="14"/>
+      <c r="B27" s="1">
         <v>45253</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="12"/>
-      <c r="B28" s="15">
+      <c r="D27" s="2"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="14"/>
+      <c r="B28" s="1">
         <v>45254</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="12"/>
-      <c r="B29" s="15">
+      <c r="D28" s="2"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="14"/>
+      <c r="B29" s="1">
         <v>45255</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="12" t="s">
-        <v>89</v>
+      <c r="D29" s="2"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="B30" s="3">
         <v>45256</v>
@@ -2332,110 +2404,125 @@
       <c r="C30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="12"/>
-      <c r="B31" s="15">
+      <c r="F30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="14"/>
+      <c r="B31" s="1">
         <v>45257</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="12"/>
-      <c r="B32" s="15">
+      <c r="D31" s="2"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="14"/>
+      <c r="B32" s="1">
         <v>45258</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="12"/>
-      <c r="B33" s="15">
+      <c r="D32" s="2"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="14"/>
+      <c r="B33" s="1">
         <v>45259</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="12"/>
-      <c r="B34" s="15">
+      <c r="D33" s="2"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="14"/>
+      <c r="B34" s="1">
         <v>45260</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="12"/>
-      <c r="B35" s="15">
+      <c r="D34" s="2"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="14"/>
+      <c r="B35" s="1">
         <v>45261</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="12"/>
-      <c r="B36" s="15">
+      <c r="D35" s="2"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="14"/>
+      <c r="B36" s="1">
         <v>45262</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="E30:E36"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="G9:G15"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="G30:G36"/>
     <mergeCell ref="F2:F8"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="F10:F15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" xr:uid="{37ECF1A3-6825-43BC-AB96-E29A44A66C32}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{37ECF1A3-6825-43BC-AB96-E29A44A66C32}"/>
+    <hyperlink ref="F31" r:id="rId2" xr:uid="{5B3460B3-D193-4AD9-99D0-70E2E65D032A}"/>
+    <hyperlink ref="F24" r:id="rId3" display="https://www.acmicpc.net/workbook/view/3980_x000a_" xr:uid="{F2FE50F4-2812-4CCF-AB39-E3568E2F6AB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
